--- a/GLOBAL/Impactos Cambio Climático/Ecosistemas/Variación Precipitación Global 1901-2015.xlsx
+++ b/GLOBAL/Impactos Cambio Climático/Ecosistemas/Variación Precipitación Global 1901-2015.xlsx
@@ -1,40 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Precipitación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos Cambio Climático\Ecosistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA63134A-9CAC-4BE8-9B8A-BA7BB2889F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A93703-5F41-4293-9C5D-18992C8AFD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Global precipitation anomaly (inches) (inches)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Año</t>
   </si>
   <si>
-    <t>Variación Anual Global de la Precipitación (cm)</t>
+    <t>Variación Precipitación (cm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1027,7 +1024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$116</c:f>
+              <c:f>Hoja1!$B$2:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
@@ -2177,13 +2174,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -2215,14 +2212,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C116" totalsRowShown="0">
-  <autoFilter ref="A1:C116"/>
-  <tableColumns count="3">
-    <tableColumn id="3" name="Año"/>
-    <tableColumn id="4" name="Global precipitation anomaly (inches) (inches)"/>
-    <tableColumn id="5" name="Variación Anual Global de la Precipitación (cm)" dataDxfId="0">
-      <calculatedColumnFormula>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:B116" totalsRowShown="0">
+  <autoFilter ref="A1:B116" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Año"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Variación Precipitación (cm)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2524,1408 +2518,944 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1901</v>
       </c>
       <c r="B2">
-        <v>-0.83893352399999999</v>
-      </c>
-      <c r="C2">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.1308911509600001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1902</v>
       </c>
       <c r="B3">
-        <v>-1.961768776</v>
-      </c>
-      <c r="C3">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-4.98289269104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1903</v>
       </c>
       <c r="B4">
-        <v>-0.57121684399999995</v>
-      </c>
-      <c r="C4">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.4508907837599998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1904</v>
       </c>
       <c r="B5">
-        <v>-1.0763352269999999</v>
-      </c>
-      <c r="C5">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.7338914765799998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1905</v>
       </c>
       <c r="B6">
-        <v>-1.129484862</v>
-      </c>
-      <c r="C6">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.8688915494799998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1906</v>
       </c>
       <c r="B7">
-        <v>-0.272397785</v>
-      </c>
-      <c r="C7">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.69189037389999997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1907</v>
       </c>
       <c r="B8">
-        <v>-0.50861838500000001</v>
-      </c>
-      <c r="C8">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.2918906979</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1908</v>
       </c>
       <c r="B9">
-        <v>-0.181059153</v>
-      </c>
-      <c r="C9">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.45989024862</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1909</v>
       </c>
       <c r="B10">
-        <v>8.0358311000000002E-2</v>
-      </c>
-      <c r="C10">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.20411010994000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1910</v>
       </c>
       <c r="B11">
-        <v>-4.2874039999999999E-3</v>
-      </c>
-      <c r="C11">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.089000616E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1911</v>
       </c>
       <c r="B12">
-        <v>-1.1960203309999999</v>
-      </c>
-      <c r="C12">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-3.0378916407399998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1912</v>
       </c>
       <c r="B13">
-        <v>-0.90783119899999998</v>
-      </c>
-      <c r="C13">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.3058912454599998</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1913</v>
       </c>
       <c r="B14">
-        <v>-1.0948391740000001</v>
-      </c>
-      <c r="C14">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.7808915019600002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1914</v>
       </c>
       <c r="B15">
-        <v>-1.205862856</v>
-      </c>
-      <c r="C15">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-3.06289165424</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1915</v>
       </c>
       <c r="B16">
-        <v>-0.43263409200000003</v>
-      </c>
-      <c r="C16">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.09889059368</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1916</v>
       </c>
       <c r="B17">
-        <v>1.72169778</v>
-      </c>
-      <c r="C17">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>4.3731123611999996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1917</v>
       </c>
       <c r="B18">
-        <v>0.56027983000000003</v>
-      </c>
-      <c r="C18">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.4231107682000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1918</v>
       </c>
       <c r="B19">
-        <v>-0.43538999900000003</v>
-      </c>
-      <c r="C19">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.1058905974600002</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1919</v>
       </c>
       <c r="B20">
-        <v>-1.3873590170000001</v>
-      </c>
-      <c r="C20">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-3.5238919031800005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1920</v>
       </c>
       <c r="B21">
-        <v>-0.13263393000000001</v>
-      </c>
-      <c r="C21">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.33689018220000005</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1921</v>
       </c>
       <c r="B22">
-        <v>0.43429551</v>
-      </c>
-      <c r="C22">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.1031105954</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1922</v>
       </c>
       <c r="B23">
-        <v>0.71894133299999996</v>
-      </c>
-      <c r="C23">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.82611098582</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1923</v>
       </c>
       <c r="B24">
-        <v>0.35004349600000001</v>
-      </c>
-      <c r="C24">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.88911047984000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1924</v>
       </c>
       <c r="B25">
-        <v>0.41067345</v>
-      </c>
-      <c r="C25">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.0431105629999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1925</v>
       </c>
       <c r="B26">
-        <v>-0.37790965300000001</v>
-      </c>
-      <c r="C26">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.95989051862000008</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1926</v>
       </c>
       <c r="B27">
-        <v>-0.64602003399999997</v>
-      </c>
-      <c r="C27">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.64089088636</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1927</v>
       </c>
       <c r="B28">
-        <v>0.40516163599999999</v>
-      </c>
-      <c r="C28">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.02911055544</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1928</v>
       </c>
       <c r="B29">
-        <v>6.8547281000000002E-2</v>
-      </c>
-      <c r="C29">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.17411009374</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1929</v>
       </c>
       <c r="B30">
-        <v>-0.20861822299999999</v>
-      </c>
-      <c r="C30">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.52989028642000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1930</v>
       </c>
       <c r="B31">
-        <v>-1.202713248</v>
-      </c>
-      <c r="C31">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-3.0548916499200001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1931</v>
       </c>
       <c r="B32">
-        <v>-0.56727983400000004</v>
-      </c>
-      <c r="C32">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.44089077836</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1932</v>
       </c>
       <c r="B33">
-        <v>-0.553894</v>
-      </c>
-      <c r="C33">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.40689076</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1933</v>
       </c>
       <c r="B34">
-        <v>0.141381966</v>
-      </c>
-      <c r="C34">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.35911019364000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1934</v>
       </c>
       <c r="B35">
-        <v>0.33508285799999998</v>
-      </c>
-      <c r="C35">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.85111045931999996</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1935</v>
       </c>
       <c r="B36">
-        <v>-4.4838607000000003E-2</v>
-      </c>
-      <c r="C36">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.11389006178000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1936</v>
       </c>
       <c r="B37">
-        <v>0.26775998699999998</v>
-      </c>
-      <c r="C37">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.68011036697999994</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1937</v>
       </c>
       <c r="B38">
-        <v>-0.25192533299999997</v>
-      </c>
-      <c r="C38">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.63989034581999993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1938</v>
       </c>
       <c r="B39">
-        <v>-0.105468561</v>
-      </c>
-      <c r="C39">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.26789014494000002</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1939</v>
       </c>
       <c r="B40">
-        <v>0.23075209299999999</v>
-      </c>
-      <c r="C40">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.58611031621999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1940</v>
       </c>
       <c r="B41">
-        <v>-1.0231855919999999</v>
-      </c>
-      <c r="C41">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.5988914036799997</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1941</v>
       </c>
       <c r="B42">
-        <v>-0.96728004999999995</v>
-      </c>
-      <c r="C42">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.4568913269999997</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1942</v>
       </c>
       <c r="B43">
-        <v>-0.12594101299999999</v>
-      </c>
-      <c r="C43">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.31989017302</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1943</v>
       </c>
       <c r="B44">
-        <v>-0.243263911</v>
-      </c>
-      <c r="C44">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.61789033394000004</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1944</v>
       </c>
       <c r="B45">
-        <v>-0.204287512</v>
-      </c>
-      <c r="C45">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.51889028047999997</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1945</v>
       </c>
       <c r="B46">
-        <v>-0.15901189700000001</v>
-      </c>
-      <c r="C46">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.40389021838000005</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1946</v>
       </c>
       <c r="B47">
-        <v>-0.23578359199999999</v>
-      </c>
-      <c r="C47">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.59889032367999995</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1947</v>
       </c>
       <c r="B48">
-        <v>0.76027993800000004</v>
-      </c>
-      <c r="C48">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.9311110425200002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1948</v>
       </c>
       <c r="B49">
-        <v>0.27130329600000003</v>
-      </c>
-      <c r="C49">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.68911037184000012</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1949</v>
       </c>
       <c r="B50">
-        <v>2.4055130000000002E-3</v>
-      </c>
-      <c r="C50">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>6.1100030200000009E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1950</v>
       </c>
       <c r="B51">
-        <v>1.146500619</v>
-      </c>
-      <c r="C51">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>2.9121115722600002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1951</v>
       </c>
       <c r="B52">
-        <v>-0.246019818</v>
-      </c>
-      <c r="C52">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.62489033772000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1952</v>
       </c>
       <c r="B53">
-        <v>2.6027572999999998E-2</v>
-      </c>
-      <c r="C53">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>6.6110035419999991E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1953</v>
       </c>
       <c r="B54">
-        <v>0.56185463400000002</v>
-      </c>
-      <c r="C54">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.4271107703600001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1954</v>
       </c>
       <c r="B55">
-        <v>1.526422084</v>
-      </c>
-      <c r="C55">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>3.8771120933600001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1955</v>
       </c>
       <c r="B56">
-        <v>1.55240635</v>
-      </c>
-      <c r="C56">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>3.9431121290000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1956</v>
       </c>
       <c r="B57">
-        <v>1.901225436</v>
-      </c>
-      <c r="C57">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>4.8291126074399999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1957</v>
       </c>
       <c r="B58">
-        <v>0.14925598600000001</v>
-      </c>
-      <c r="C58">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.37911020444000004</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1958</v>
       </c>
       <c r="B59">
-        <v>0.59728772399999996</v>
-      </c>
-      <c r="C59">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.51711081896</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1959</v>
       </c>
       <c r="B60">
-        <v>1.008705269</v>
-      </c>
-      <c r="C60">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>2.56211138326</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1960</v>
       </c>
       <c r="B61">
-        <v>0.91972884300000002</v>
-      </c>
-      <c r="C61">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>2.3361112612200001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1961</v>
       </c>
       <c r="B62">
-        <v>0.83980754000000002</v>
-      </c>
-      <c r="C62">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>2.1331111516000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1962</v>
       </c>
       <c r="B63">
-        <v>0.52130343099999998</v>
-      </c>
-      <c r="C63">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.32411071474</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1963</v>
       </c>
       <c r="B64">
-        <v>-6.4129956000000002E-2</v>
-      </c>
-      <c r="C64">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.16289008824000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1964</v>
       </c>
       <c r="B65">
-        <v>0.39492540999999998</v>
-      </c>
-      <c r="C65">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.0031105413999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1965</v>
       </c>
       <c r="B66">
-        <v>-0.67042949600000001</v>
-      </c>
-      <c r="C66">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.70289091984</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1966</v>
       </c>
       <c r="B67">
-        <v>0.33114584800000002</v>
-      </c>
-      <c r="C67">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.84111045392000006</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1967</v>
       </c>
       <c r="B68">
-        <v>0.37642146300000001</v>
-      </c>
-      <c r="C68">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.95611051602000008</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1968</v>
       </c>
       <c r="B69">
-        <v>-0.46570497599999999</v>
-      </c>
-      <c r="C69">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.18289063904</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1969</v>
       </c>
       <c r="B70">
-        <v>0.126421328</v>
-      </c>
-      <c r="C70">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.32111017312000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1970</v>
       </c>
       <c r="B71">
-        <v>0.74098858899999998</v>
-      </c>
-      <c r="C71">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.8821110160599999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1971</v>
       </c>
       <c r="B72">
-        <v>-1.2161424000000001E-2</v>
-      </c>
-      <c r="C72">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-3.0890016960000002E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1972</v>
       </c>
       <c r="B73">
-        <v>-0.62633498399999998</v>
-      </c>
-      <c r="C73">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.59089085936</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1973</v>
       </c>
       <c r="B74">
-        <v>1.5098866419999999</v>
-      </c>
-      <c r="C74">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>3.8351120706799997</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1974</v>
       </c>
       <c r="B75">
-        <v>1.1468943199999999</v>
-      </c>
-      <c r="C75">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>2.9131115727999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1975</v>
       </c>
       <c r="B76">
-        <v>1.110280127</v>
-      </c>
-      <c r="C76">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>2.82011152258</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1976</v>
       </c>
       <c r="B77">
-        <v>-0.257830848</v>
-      </c>
-      <c r="C77">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.65489035392000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1977</v>
       </c>
       <c r="B78">
-        <v>-0.44720102900000003</v>
-      </c>
-      <c r="C78">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.13589061366</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1978</v>
       </c>
       <c r="B79">
-        <v>0.365397835</v>
-      </c>
-      <c r="C79">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.92811050090000002</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1979</v>
       </c>
       <c r="B80">
-        <v>0.888626464</v>
-      </c>
-      <c r="C80">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>2.25711121856</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1980</v>
       </c>
       <c r="B81">
-        <v>0.377208865</v>
-      </c>
-      <c r="C81">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.95811051710000006</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1981</v>
       </c>
       <c r="B82">
-        <v>0.53350816199999995</v>
-      </c>
-      <c r="C82">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.3551107314799999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1982</v>
       </c>
       <c r="B83">
-        <v>-0.71216180200000001</v>
-      </c>
-      <c r="C83">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.8088909770800001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1983</v>
       </c>
       <c r="B84">
-        <v>-1.086177752</v>
-      </c>
-      <c r="C84">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.7588914900799999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1984</v>
       </c>
       <c r="B85">
-        <v>1.9334655999999999E-2</v>
-      </c>
-      <c r="C85">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>4.911002624E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1985</v>
       </c>
       <c r="B86">
-        <v>-0.18460246199999999</v>
-      </c>
-      <c r="C86">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.46889025348000002</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1986</v>
       </c>
       <c r="B87">
-        <v>-0.80901224800000004</v>
-      </c>
-      <c r="C87">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.0548911099200002</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1987</v>
       </c>
       <c r="B88">
-        <v>-1.322398352</v>
-      </c>
-      <c r="C88">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-3.3588918140800001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1988</v>
       </c>
       <c r="B89">
-        <v>0.84768155999999995</v>
-      </c>
-      <c r="C89">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>2.1531111624000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1989</v>
       </c>
       <c r="B90">
-        <v>0.58902000300000001</v>
-      </c>
-      <c r="C90">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.49611080762</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1990</v>
       </c>
       <c r="B91">
-        <v>0.117366205</v>
-      </c>
-      <c r="C91">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.29811016070000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1991</v>
       </c>
       <c r="B92">
-        <v>-0.66255547599999998</v>
-      </c>
-      <c r="C92">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.6828909090399999</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1992</v>
       </c>
       <c r="B93">
-        <v>-1.5751543939999999</v>
-      </c>
-      <c r="C93">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-4.0008921607599994</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1993</v>
       </c>
       <c r="B94">
-        <v>-0.99759502700000002</v>
-      </c>
-      <c r="C94">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-2.53389136858</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1994</v>
       </c>
       <c r="B95">
-        <v>-0.16176780399999999</v>
-      </c>
-      <c r="C95">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.41089022215999998</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1995</v>
       </c>
       <c r="B96">
-        <v>-0.60428772799999997</v>
-      </c>
-      <c r="C96">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.5348908291199999</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1996</v>
       </c>
       <c r="B97">
-        <v>0.68390194400000004</v>
-      </c>
-      <c r="C97">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.73711093776</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1997</v>
       </c>
       <c r="B98">
-        <v>-0.146019764</v>
-      </c>
-      <c r="C98">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.37089020055999999</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1998</v>
       </c>
       <c r="B99">
-        <v>0.407130141</v>
-      </c>
-      <c r="C99">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.0341105581400001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1999</v>
       </c>
       <c r="B100">
-        <v>1.3398078099999999</v>
-      </c>
-      <c r="C100">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>3.4031118374</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2000</v>
       </c>
       <c r="B101">
-        <v>1.890201808</v>
-      </c>
-      <c r="C101">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>4.80111259232</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2001</v>
       </c>
       <c r="B102">
-        <v>-0.125153611</v>
-      </c>
-      <c r="C102">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.31789017194000002</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2002</v>
       </c>
       <c r="B103">
-        <v>-0.47751600599999999</v>
-      </c>
-      <c r="C103">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-1.2128906552400001</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2003</v>
       </c>
       <c r="B104">
-        <v>0.14807488299999999</v>
-      </c>
-      <c r="C104">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.37611020281999996</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2004</v>
       </c>
       <c r="B105">
-        <v>0.61461056800000002</v>
-      </c>
-      <c r="C105">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.56111084272</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2005</v>
       </c>
       <c r="B106">
-        <v>0.409886048</v>
-      </c>
-      <c r="C106">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.0411105619200001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2006</v>
       </c>
       <c r="B107">
-        <v>1.449256688</v>
-      </c>
-      <c r="C107">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>3.68111198752</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2007</v>
       </c>
       <c r="B108">
-        <v>0.42051597499999999</v>
-      </c>
-      <c r="C108">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.0681105765000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2008</v>
       </c>
       <c r="B109">
-        <v>1.30831173</v>
-      </c>
-      <c r="C109">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>3.3231117941999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2009</v>
       </c>
       <c r="B110">
-        <v>-0.17987805000000001</v>
-      </c>
-      <c r="C110">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.45689024700000003</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2010</v>
       </c>
       <c r="B111">
-        <v>2.1547688800000002</v>
-      </c>
-      <c r="C111">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>5.4731129552000004</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2011</v>
       </c>
       <c r="B112">
-        <v>1.959886885</v>
-      </c>
-      <c r="C112">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>4.9781126879000004</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2012</v>
       </c>
       <c r="B113">
-        <v>0.15870481</v>
-      </c>
-      <c r="C113">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.40311021740000003</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2013</v>
       </c>
       <c r="B114">
-        <v>0.13468904900000001</v>
-      </c>
-      <c r="C114">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>0.34211018446000002</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2014</v>
       </c>
       <c r="B115">
-        <v>7.1299249999999996E-3</v>
-      </c>
-      <c r="C115">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>1.81100095E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2015</v>
       </c>
       <c r="B116">
-        <v>-5.5468534E-2</v>
-      </c>
-      <c r="C116">
-        <f>Tabla1[[#This Row],[Global precipitation anomaly (inches) (inches)]]*2.54</f>
         <v>-0.14089007636000001</v>
       </c>
     </row>
